--- a/project-plan/water-ingress-project-plan.xlsx
+++ b/project-plan/water-ingress-project-plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Blur\Documents\metropole\project-plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Blur\Documents\metropole\BuildingIssues\project-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Task ID</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Car Park Issues</t>
+  </si>
+  <si>
+    <t>Water Leaking into Lift</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -623,6 +626,9 @@
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>

--- a/project-plan/water-ingress-project-plan.xlsx
+++ b/project-plan/water-ingress-project-plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Task ID</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Water Leaking into Lift</t>
+  </si>
+  <si>
+    <t>Water in the communal area leaking onto shop unit 2</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -649,6 +652,9 @@
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
